--- a/data/trans_bre/P7B_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P7B_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,35</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,89</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,74</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>34,93%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>55,14%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>63,15%</t>
+          <t>6,83%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 17,28</t>
+          <t>-19,56; 16,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 21,09</t>
+          <t>-20,77; 15,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 23,15</t>
+          <t>-17,8; 18,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 24,8</t>
+          <t>-18,86; 18,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-39,43; 146,43</t>
+          <t>-68,03; 209,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-32,6; 193,08</t>
+          <t>-69,03; 199,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-24,78; 291,4</t>
+          <t>-66,26; 275,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-18,76; 315,63</t>
+          <t>-67,1; 254,63</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,84</t>
+          <t>14,09</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21,82</t>
+          <t>12,7</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24,01</t>
+          <t>16,03</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>24,34</t>
+          <t>16,76</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>60,46%</t>
+          <t>37,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>58,33%</t>
+          <t>32,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>69,43%</t>
+          <t>44,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>71,01%</t>
+          <t>47,42%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 36,86</t>
+          <t>-11,85; 36,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 38,21</t>
+          <t>-16,01; 36,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,91; 39,18</t>
+          <t>-9,59; 37,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 40,48</t>
+          <t>-9,94; 39,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 147,44</t>
+          <t>-25,18; 153,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 143,95</t>
+          <t>-28,97; 161,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,49; 164,89</t>
+          <t>-19,74; 189,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,16; 179,45</t>
+          <t>-20,79; 201,87</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,56</t>
+          <t>19,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,41</t>
+          <t>19,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,11</t>
+          <t>18,52</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,64</t>
+          <t>19,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,0%</t>
+          <t>28,85%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>29,16%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>27,45%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>21,7%</t>
+          <t>29,12%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,29; 31,13</t>
+          <t>4,19; 33,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 31,17</t>
+          <t>4,8; 33,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,91; 30,72</t>
+          <t>5,35; 33,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 30,71</t>
+          <t>4,83; 33,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,32; 56,33</t>
+          <t>5,48; 60,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 57,49</t>
+          <t>6,59; 61,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,11; 56,33</t>
+          <t>7,03; 58,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 54,78</t>
+          <t>6,28; 63,41</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-10,11</t>
+          <t>-9,15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-9,92</t>
+          <t>-7,17</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-12,18</t>
+          <t>-9,56</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-13,04</t>
+          <t>-11,76</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-23,16%</t>
+          <t>-20,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-22,87%</t>
+          <t>-16,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-27,43%</t>
+          <t>-21,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-29,25%</t>
+          <t>-26,12%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,77; 0,6</t>
+          <t>-21,95; 4,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,26; 1,97</t>
+          <t>-20,29; 6,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,42; -0,29</t>
+          <t>-22,76; 5,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,0; -1,4</t>
+          <t>-25,31; 3,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,19; 2,94</t>
+          <t>-43,3; 12,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,97; 6,0</t>
+          <t>-39,68; 20,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,56; -0,39</t>
+          <t>-44,56; 16,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,99; -3,8</t>
+          <t>-49,45; 9,2</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>8,55</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>7,92</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>8,67</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>7,22</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>61,08%</t>
+          <t>152,83%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>33,24%</t>
+          <t>144,49%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>61,88%</t>
+          <t>154,9%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>55,22%</t>
+          <t>133,25%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 10,53</t>
+          <t>-1,04; 20,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 8,47</t>
+          <t>-1,73; 19,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 9,44</t>
+          <t>-1,27; 20,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 9,64</t>
+          <t>-2,47; 19,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-50,48; 451,49</t>
+          <t>-37,07; 1014,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-59,32; 282,55</t>
+          <t>-37,78; 996,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-58,45; 395,17</t>
+          <t>-38,78; 989,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-64,58; 409,75</t>
+          <t>-44,03; 1031,82</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>8,17</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>5,05</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>54,0%</t>
+          <t>238,71%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>259,92%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>41,39%</t>
+          <t>331,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-9,31%</t>
+          <t>91,87%</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 8,26</t>
+          <t>-2,92; 20,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 7,53</t>
+          <t>-2,73; 22,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 10,08</t>
+          <t>-1,87; 25,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 7,26</t>
+          <t>-6,59; 22,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,08</t>
+          <t>10,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>11,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>11,23</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>9,87</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>31,64%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>34,36%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>35,72%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>31,08%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,49 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 11,64</t>
+          <t>1,42; 16,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,18; 12,76</t>
+          <t>2,08; 17,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,71; 12,45</t>
+          <t>2,47; 18,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 11,42</t>
+          <t>0,82; 17,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,73; 41,37</t>
+          <t>3,41; 60,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 42,85</t>
+          <t>4,57; 66,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,05; 43,3</t>
+          <t>5,73; 67,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 41,05</t>
+          <t>1,74; 65,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P7B_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P7B_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,84</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,41</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,94%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,13%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>7,97%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>6,83%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.8369133613806368</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.1220585682974784</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.593687890935916</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.706705171105891</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.04941014366352605</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.007370271509272329</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.08530601685252961</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.09184147761951096</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-19,56; 16,7</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-20,77; 15,69</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-17,8; 18,69</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-18,86; 18,15</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-68,03; 209,57</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-69,03; 199,06</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-66,26; 275,16</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-67,1; 254,63</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-19.55639307447078</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-19.87947236343455</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-19.62118879250854</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-18.80010249230243</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.6803230178101093</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.7066565130015212</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.6669549378179458</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.6650704822835508</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>16.70364627387207</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>15.11625974823889</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>19.82152163716395</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>20.21038500579416</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>2.095650088384919</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>2.041507990533447</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.613342146179491</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.596870743004632</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>14,09</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>12,7</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>16,03</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>16,76</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>37,14%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>32,49%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>44,99%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>47,42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-11,85; 36,23</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-16,01; 36,39</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-9,59; 37,82</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-9,94; 39,8</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-25,18; 153,98</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-28,97; 161,84</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-19,74; 189,21</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-20,79; 201,87</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>14.09354508020959</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>18.83735707778477</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>18.69613484720422</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>18.33081729990158</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.3713599235856522</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.551527563346089</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.5549536776814555</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.5285429174042935</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>19,17</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>19,45</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>18,52</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>19,35</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>28,85%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>29,16%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>27,45%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>29,12%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-11.84981381184078</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-8.78852206566866</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-4.872754518515178</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-7.564129056053298</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.2518296133073962</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.1910230866305241</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1139891692483114</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1720978741931134</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>4,19; 33,9</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>4,8; 33,71</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>5,35; 33,15</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>4,83; 33,71</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>5,48; 60,98</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>6,59; 61,28</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>7,03; 58,21</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>6,28; 63,41</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>36.23086148649441</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>40.28803285867076</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>39.85972888632113</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>40.87074072571751</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.539777605239627</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.029139421796448</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.003745473757852</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.052233217993058</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +827,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-9,15</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-7,17</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-9,56</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-11,76</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-20,44%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-16,37%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-21,62%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-26,12%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>19.17191852545434</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>17.40963819225561</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>17.52948929370861</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>18.22891580864058</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.288540913847</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.2540804285888446</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.2562937055052783</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.269606554852779</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-21,95; 4,53</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-20,29; 6,66</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-22,76; 5,8</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-25,31; 3,89</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-43,3; 12,72</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-39,68; 20,95</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-44,56; 16,97</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-49,45; 9,2</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>4.190697938822561</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>3.107607131668066</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>4.779611001312277</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>3.670388513734336</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.05480744026904164</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.03953729815119745</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.06538458530570306</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.04784040636802683</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>33.90416589970155</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>31.64966047050051</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>33.18390846089025</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>33.0584530652982</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.6097832473127327</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.5540510349614465</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.5751374132593036</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.6013407928163819</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>8,55</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>7,92</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>8,67</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>7,22</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>152,83%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>144,49%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>154,9%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>133,25%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,04; 20,79</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,73; 19,54</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,27; 20,79</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-2,47; 19,39</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-37,07; 1014,28</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-37,78; 996,69</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-38,78; 989,77</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-44,03; 1031,82</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-9.147178898207409</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-8.232590322401206</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-9.510092557634191</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-11.60803216506953</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.2043836479822491</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.1893175020317309</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.2198123753535491</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.2636145177521326</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>6,45</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>7,1</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>8,17</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>5,05</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>238,71%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>259,92%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>331,04%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>91,87%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-21.94808220664178</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-21.38258689388514</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-23.29817554279529</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-26.04280993135695</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.4329554435809729</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.4187993530440975</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.4569129720740857</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.5004047276861809</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-2,92; 20,6</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,73; 22,51</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,87; 25,8</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-6,59; 22,31</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.526540378613073</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.332385125170767</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>6.052371909203239</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.118937853115152</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.1271853655135382</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1786507654652801</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.179930745929121</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.1000846077181421</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1027,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>10,17</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>11,0</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>11,23</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>9,87</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>31,64%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>34,36%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>35,72%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>31,08%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>8.553448017215867</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>8.603092382471333</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>9.151455504506757</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>7.929999570569445</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>1.52834805781609</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>1.60520011404673</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>1.658749659677145</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>1.50928297070507</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>1,42; 16,94</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2,08; 17,96</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>2,47; 18,24</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 17,45</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>3,41; 60,51</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>4,57; 66,21</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>5,73; 67,97</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>1,74; 65,45</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-1.037839947193089</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-1.028402372174007</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-1.037413249770261</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-1.833172395729659</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.3707172715714314</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.3750072860435464</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.2957013529095447</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.3641234118994816</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>20.78976558411562</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>20.57701497543851</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>21.67247176422465</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>20.98830208238596</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>10.14280266420591</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>10.15243442406592</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>10.95100819013656</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>11.24475557551538</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>6.454577960206651</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>8.274539921354718</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>9.428025556374061</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>6.027773659376225</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>2.387067829709009</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>3.655740239343361</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>3.925946141740072</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>1.110309983237834</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-2.915543725012507</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-1.404769364929401</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.7181496230490715</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-6.075360538998338</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>20.60477394584272</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>25.1183639715392</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>29.5306644402652</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>25.06547297463302</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>10.16880975849385</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>11.51521847228636</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>11.29343213263337</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>9.899959730629016</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.3164085907406091</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.362728424843318</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.3564028406674921</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.3078467080221103</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>1.417967656085331</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>1.944508343746828</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>2.518819183686897</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.3830475350122456</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.03410327574101233</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.05740921887410996</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>0.06347890072225777</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>0.007849589395476262</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>16.94460923008631</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>18.50723378480081</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>18.13484847050765</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>17.40604570837083</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.605116034883787</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.6997824166856714</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.6744460178796456</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.6530890210643888</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1309,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
